--- a/Monsters.xlsx
+++ b/Monsters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,252 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>robustness</t>
+  </si>
+  <si>
+    <t>dodge</t>
+  </si>
+  <si>
+    <t>physical attack</t>
+  </si>
+  <si>
+    <t>magic attack</t>
+  </si>
+  <si>
+    <t>Arraignée</t>
+  </si>
+  <si>
+    <t>Loup</t>
+  </si>
+  <si>
+    <t>Reine</t>
+  </si>
+  <si>
+    <t>robuste</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Poring</t>
+  </si>
+  <si>
+    <t>gold dropé</t>
+  </si>
+  <si>
+    <t>Dangereux</t>
+  </si>
+  <si>
+    <t>Squelette</t>
+  </si>
+  <si>
+    <t>Fantôme</t>
+  </si>
+  <si>
+    <t>Mort</t>
+  </si>
+  <si>
+    <t>zombi</t>
+  </si>
+  <si>
+    <t>Plante</t>
+  </si>
+  <si>
+    <t>Carnivore</t>
+  </si>
+  <si>
+    <t>Magique</t>
+  </si>
+  <si>
+    <t>Humain</t>
+  </si>
+  <si>
+    <t>Chef des brigands</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>RX1</t>
+  </si>
+  <si>
+    <t>RX2</t>
+  </si>
+  <si>
+    <t>Lanceurs</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Thibaud</t>
+  </si>
+  <si>
+    <t>Légendaire</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Tigrou</t>
+  </si>
+  <si>
+    <t>Gobelin</t>
+  </si>
+  <si>
+    <t>Roi des gobelins</t>
+  </si>
+  <si>
+    <t>Oiseau</t>
+  </si>
+  <si>
+    <t>Aigle x4</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>Ours brun x2</t>
+  </si>
+  <si>
+    <t>Brigand x3</t>
+  </si>
+  <si>
+    <t>Mage confirmé x2</t>
+  </si>
+  <si>
+    <t>Vagabond x1</t>
+  </si>
+  <si>
+    <t>Mage apprenti x2</t>
+  </si>
+  <si>
+    <t>Gobelin sauvage x3</t>
+  </si>
+  <si>
+    <t>Gobelin lache x3</t>
+  </si>
+  <si>
+    <t>Super gobelin x2</t>
+  </si>
+  <si>
+    <t>bébé x3</t>
+  </si>
+  <si>
+    <t>feu x2</t>
+  </si>
+  <si>
+    <t>Personnage LEVEL 1</t>
+  </si>
+  <si>
+    <t>Les statistiques des mosntres ont été calculé à partir des stats LEVEL 1 du personnage</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>Abeille</t>
+  </si>
+  <si>
+    <t>Jaune x4</t>
+  </si>
+  <si>
+    <t>Rouge x4</t>
+  </si>
+  <si>
+    <t>Tueuse x3</t>
+  </si>
+  <si>
+    <t>Arbre démoniaque</t>
+  </si>
+  <si>
+    <t>Chauve souris</t>
+  </si>
+  <si>
+    <t>Mini x4</t>
+  </si>
+  <si>
+    <t>Grande féroce x3</t>
+  </si>
+  <si>
+    <t>Grande distante x3</t>
+  </si>
+  <si>
+    <t>Humain pirate</t>
+  </si>
+  <si>
+    <t>Capitaine x1</t>
+  </si>
+  <si>
+    <t>Officier x2</t>
+  </si>
+  <si>
+    <t>Matelot x4</t>
+  </si>
+  <si>
+    <t>Sabreur x3</t>
+  </si>
+  <si>
+    <t>Tireur x3</t>
+  </si>
+  <si>
+    <t>Chien sauvage x3</t>
+  </si>
+  <si>
+    <t>Chien pirate x2</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Monstre magique</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Parent heat</t>
+  </si>
+  <si>
+    <t>Chien mort</t>
+  </si>
+  <si>
+    <t>Loup mort</t>
+  </si>
+  <si>
+    <t>adulte x2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +262,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -40,23 +331,378 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF993300"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +779,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +987,1523 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="6">
+        <v>110</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>5</v>
+      </c>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="11">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+      <c r="D6" s="12">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13">
+        <v>200</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="12">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="11">
+        <v>60</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="12">
+        <v>75</v>
+      </c>
+      <c r="D12" s="12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="12">
+        <v>75</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>10</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>3</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="11">
+        <v>60</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>8</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12">
+        <v>110</v>
+      </c>
+      <c r="D15" s="12">
+        <v>10</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13">
+        <v>80</v>
+      </c>
+      <c r="D16" s="13">
+        <v>15</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>65</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="23">
+        <v>55</v>
+      </c>
+      <c r="D19" s="22">
+        <v>8</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="20">
+        <v>70</v>
+      </c>
+      <c r="D20" s="19">
+        <v>13</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="19">
+        <v>75</v>
+      </c>
+      <c r="D21" s="19">
+        <v>15</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="19">
+        <v>70</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <v>15</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>4</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
+      <c r="B23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="26">
+        <v>90</v>
+      </c>
+      <c r="D23" s="26">
+        <v>20</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>3</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1</v>
+      </c>
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="23">
+        <v>80</v>
+      </c>
+      <c r="D24" s="22">
+        <v>15</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="31">
+        <v>80</v>
+      </c>
+      <c r="D25" s="31">
+        <v>0</v>
+      </c>
+      <c r="E25" s="31">
+        <v>20</v>
+      </c>
+      <c r="F25" s="31">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31">
+        <v>5</v>
+      </c>
+      <c r="H25" s="31">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="27">
+        <v>170</v>
+      </c>
+      <c r="D26" s="26">
+        <v>35</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="23">
+        <v>100</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
+        <v>11</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2</v>
+      </c>
+      <c r="G27" s="22">
+        <v>3</v>
+      </c>
+      <c r="H27" s="22">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="20">
+        <v>85</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>10</v>
+      </c>
+      <c r="F28" s="19">
+        <v>2</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2</v>
+      </c>
+      <c r="H28" s="19">
+        <v>1</v>
+      </c>
+      <c r="I28" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="20">
+        <v>75</v>
+      </c>
+      <c r="D29" s="19">
+        <v>9</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19">
+        <v>1</v>
+      </c>
+      <c r="I29" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="20">
+        <v>75</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>9</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="19">
+        <v>1</v>
+      </c>
+      <c r="I30" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="20">
+        <v>60</v>
+      </c>
+      <c r="D31" s="19">
+        <v>8</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="23">
+        <v>40</v>
+      </c>
+      <c r="D32" s="22">
+        <v>6</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="27">
+        <v>65</v>
+      </c>
+      <c r="D33" s="26">
+        <v>8</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0</v>
+      </c>
+      <c r="G33" s="26">
+        <v>1</v>
+      </c>
+      <c r="H33" s="26">
+        <v>1</v>
+      </c>
+      <c r="I33" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="20">
+        <v>70</v>
+      </c>
+      <c r="D34" s="20">
+        <v>20</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>1</v>
+      </c>
+      <c r="G34" s="20">
+        <v>2</v>
+      </c>
+      <c r="H34" s="20">
+        <v>1</v>
+      </c>
+      <c r="I34" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="19">
+        <v>160</v>
+      </c>
+      <c r="D35" s="19">
+        <v>35</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <v>3</v>
+      </c>
+      <c r="G35" s="19">
+        <v>4</v>
+      </c>
+      <c r="H35" s="19">
+        <v>2</v>
+      </c>
+      <c r="I35" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="19">
+        <v>80</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19">
+        <v>25</v>
+      </c>
+      <c r="F36" s="19">
+        <v>2</v>
+      </c>
+      <c r="G36" s="19">
+        <v>5</v>
+      </c>
+      <c r="H36" s="19">
+        <v>1</v>
+      </c>
+      <c r="I36" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="19">
+        <v>70</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <v>15</v>
+      </c>
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+      <c r="G37" s="19">
+        <v>3</v>
+      </c>
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="26">
+        <v>120</v>
+      </c>
+      <c r="D38" s="26">
+        <v>30</v>
+      </c>
+      <c r="E38" s="26">
+        <v>0</v>
+      </c>
+      <c r="F38" s="26">
+        <v>1</v>
+      </c>
+      <c r="G38" s="26">
+        <v>2</v>
+      </c>
+      <c r="H38" s="26">
+        <v>3</v>
+      </c>
+      <c r="I38" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="22">
+        <v>135</v>
+      </c>
+      <c r="D39" s="22">
+        <v>17</v>
+      </c>
+      <c r="E39" s="22">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22">
+        <v>3</v>
+      </c>
+      <c r="G39" s="22">
+        <v>4</v>
+      </c>
+      <c r="H39" s="22">
+        <v>0</v>
+      </c>
+      <c r="I39" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="19">
+        <v>80</v>
+      </c>
+      <c r="D40" s="19">
+        <v>10</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19">
+        <v>2</v>
+      </c>
+      <c r="G40" s="19">
+        <v>2</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="26">
+        <v>70</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="26">
+        <v>15</v>
+      </c>
+      <c r="F41" s="26">
+        <v>1</v>
+      </c>
+      <c r="G41" s="26">
+        <v>3</v>
+      </c>
+      <c r="H41" s="26">
+        <v>0</v>
+      </c>
+      <c r="I41" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="34">
+        <v>200</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0</v>
+      </c>
+      <c r="E42" s="34">
+        <v>25</v>
+      </c>
+      <c r="F42" s="34">
+        <v>2</v>
+      </c>
+      <c r="G42" s="34">
+        <v>3</v>
+      </c>
+      <c r="H42" s="34">
+        <v>2</v>
+      </c>
+      <c r="I42" s="30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="34">
+        <v>150</v>
+      </c>
+      <c r="D43" s="34">
+        <v>15</v>
+      </c>
+      <c r="E43" s="34">
+        <v>0</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0</v>
+      </c>
+      <c r="G43" s="34">
+        <v>0</v>
+      </c>
+      <c r="H43" s="34">
+        <v>4</v>
+      </c>
+      <c r="I43" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="22">
+        <v>80</v>
+      </c>
+      <c r="D44" s="22">
+        <v>12</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22">
+        <v>2</v>
+      </c>
+      <c r="H44" s="22">
+        <v>1</v>
+      </c>
+      <c r="I44" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="48"/>
+      <c r="B45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="19">
+        <v>60</v>
+      </c>
+      <c r="D45" s="19">
+        <v>0</v>
+      </c>
+      <c r="E45" s="19">
+        <v>15</v>
+      </c>
+      <c r="F45" s="19">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19">
+        <v>3</v>
+      </c>
+      <c r="H45" s="19">
+        <v>2</v>
+      </c>
+      <c r="I45" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="B46" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="19">
+        <v>100</v>
+      </c>
+      <c r="D46" s="19">
+        <v>15</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19">
+        <v>3</v>
+      </c>
+      <c r="G46" s="19">
+        <v>3</v>
+      </c>
+      <c r="H46" s="19">
+        <v>2</v>
+      </c>
+      <c r="I46" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="26">
+        <v>300</v>
+      </c>
+      <c r="D47" s="26">
+        <v>0</v>
+      </c>
+      <c r="E47" s="26">
+        <v>30</v>
+      </c>
+      <c r="F47" s="26">
+        <v>4</v>
+      </c>
+      <c r="G47" s="26">
+        <v>4</v>
+      </c>
+      <c r="H47" s="26">
+        <v>2</v>
+      </c>
+      <c r="I47" s="27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="34">
+        <v>20</v>
+      </c>
+      <c r="D48" s="34">
+        <v>10</v>
+      </c>
+      <c r="E48" s="34">
+        <v>0</v>
+      </c>
+      <c r="F48" s="34">
+        <v>0</v>
+      </c>
+      <c r="G48" s="34">
+        <v>2</v>
+      </c>
+      <c r="H48" s="34">
+        <v>2</v>
+      </c>
+      <c r="I48" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="34">
+        <v>80</v>
+      </c>
+      <c r="D49" s="34">
+        <v>15</v>
+      </c>
+      <c r="E49" s="34">
+        <v>0</v>
+      </c>
+      <c r="F49" s="34">
+        <v>2</v>
+      </c>
+      <c r="G49" s="34">
+        <v>1</v>
+      </c>
+      <c r="H49" s="34">
+        <v>1</v>
+      </c>
+      <c r="I49" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="22">
+        <v>65</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <v>8</v>
+      </c>
+      <c r="F50" s="22">
+        <v>1</v>
+      </c>
+      <c r="G50" s="22">
+        <v>3</v>
+      </c>
+      <c r="H50" s="22">
+        <v>1</v>
+      </c>
+      <c r="I50" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="19">
+        <v>65</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0</v>
+      </c>
+      <c r="E51" s="19">
+        <v>8</v>
+      </c>
+      <c r="F51" s="19">
+        <v>2</v>
+      </c>
+      <c r="G51" s="19">
+        <v>3</v>
+      </c>
+      <c r="H51" s="19">
+        <v>1</v>
+      </c>
+      <c r="I51" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="19">
+        <v>80</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0</v>
+      </c>
+      <c r="E52" s="19">
+        <v>6</v>
+      </c>
+      <c r="F52" s="19">
+        <v>3</v>
+      </c>
+      <c r="G52" s="19">
+        <v>3</v>
+      </c>
+      <c r="H52" s="19">
+        <v>1</v>
+      </c>
+      <c r="I52" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="59"/>
+      <c r="B53" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="19">
+        <v>65</v>
+      </c>
+      <c r="D53" s="19">
+        <v>0</v>
+      </c>
+      <c r="E53" s="19">
+        <v>8</v>
+      </c>
+      <c r="F53" s="19">
+        <v>0</v>
+      </c>
+      <c r="G53" s="19">
+        <v>3</v>
+      </c>
+      <c r="H53" s="19">
+        <v>2</v>
+      </c>
+      <c r="I53" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="26">
+        <v>100</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0</v>
+      </c>
+      <c r="E54" s="26">
+        <v>13</v>
+      </c>
+      <c r="F54" s="26">
+        <v>3</v>
+      </c>
+      <c r="G54" s="26">
+        <v>5</v>
+      </c>
+      <c r="H54" s="26">
+        <v>1</v>
+      </c>
+      <c r="I54" s="27">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>